--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,59 +421,372 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>city</t>
+          <t>[</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liza</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SPB</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maxim</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Moscow</t>
+          <t xml:space="preserve">        "[": "    {"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"name\": \"Liza\""</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "null": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"age\": \"21\""</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "null": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"city\": \"SPB\""</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "    }"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "null": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "    {"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"name\": \"Maxim\""</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "null": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"age\": \"22\""</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "null": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ""</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "        \"city\": \"Moscow\""</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "    }"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "[": "]"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>]</t>
         </is>
       </c>
     </row>
